--- a/biology/Botanique/Elaeocarpus_blascoi/Elaeocarpus_blascoi.xlsx
+++ b/biology/Botanique/Elaeocarpus_blascoi/Elaeocarpus_blascoi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Elaeocarpus blascoi est une espèce de plantes dicotylédones de la famille des Elaeocarpaceae.
-C'est un arbre à feuilles persistantes simples qui peut atteindre 20 mètres de haut, endémique des monts Palni et Kodaikanal (Ghats occidentaux) dans l'État du Tamil Nadu (Inde)[2].
-L'espèce est inscrite comme espèce en danger (EN) dans la liste rouge de l'UICN[3].
+C'est un arbre à feuilles persistantes simples qui peut atteindre 20 mètres de haut, endémique des monts Palni et Kodaikanal (Ghats occidentaux) dans l'État du Tamil Nadu (Inde).
+L'espèce est inscrite comme espèce en danger (EN) dans la liste rouge de l'UICN.
 Découvert à Bear Shola dans les monts Palni en 1970, l'arbre n'a pas été retrouvé lors d'une expédition d'exploration de
-la flore de cette région en 1999 et a été considéré alors comme éteint. Un seul exemplaire vivant a été observé en 2000 dans la région  de Kodaikanal, dans les franges de la forêt humide sempervirente à plus de 2150 m d'altitude[4].
+la flore de cette région en 1999 et a été considéré alors comme éteint. Un seul exemplaire vivant a été observé en 2000 dans la région  de Kodaikanal, dans les franges de la forêt humide sempervirente à plus de 2150 m d'altitude.
 </t>
         </is>
       </c>
